--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_19-52.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_19-52.xlsx
@@ -68,6 +68,9 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>CARE BY CARE PLUS CREAM 100 GM</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -261,6 +267,12 @@
   </si>
   <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -1127,11 +1139,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1147,13 +1159,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1179,7 +1191,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1205,11 +1217,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1217,7 +1229,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1231,11 +1243,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1251,17 +1263,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1277,17 +1289,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>43.329999999999998</v>
+        <v>74</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1295,7 +1307,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1303,17 +1315,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>25</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1335,11 +1347,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1355,17 +1367,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1387,11 +1399,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1399,7 +1411,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1407,17 +1419,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1433,17 +1445,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1459,17 +1471,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1477,7 +1489,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1485,13 +1497,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>133.5</v>
+        <v>42</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1517,7 +1529,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>57</v>
+        <v>133.5</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1537,13 +1549,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1555,7 +1567,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1563,13 +1575,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1581,7 +1593,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1589,17 +1601,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1607,7 +1619,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1615,13 +1627,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1641,17 +1653,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1673,7 +1685,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1693,17 +1705,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1711,7 +1723,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1719,17 +1731,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1737,7 +1749,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1745,17 +1757,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1771,13 +1783,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1797,17 +1809,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1823,17 +1835,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1841,7 +1853,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1849,17 +1861,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1875,17 +1887,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>16.91</v>
+        <v>295</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1893,7 +1905,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1901,17 +1913,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>120</v>
+        <v>16.91</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1927,17 +1939,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1953,17 +1965,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>71.5</v>
+        <v>180</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1979,17 +1991,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>24</v>
+        <v>71.5</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1997,7 +2009,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2005,17 +2017,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2023,7 +2035,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2031,17 +2043,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>540</v>
+        <v>135</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2049,7 +2061,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2057,17 +2069,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2075,7 +2087,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2083,17 +2095,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2101,7 +2113,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2109,17 +2121,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>136.16</v>
+        <v>48</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2135,17 +2147,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2161,17 +2173,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>7</v>
+        <v>136.16</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2179,7 +2191,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2187,17 +2199,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2205,7 +2217,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2213,17 +2225,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2239,17 +2251,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2265,17 +2277,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2291,13 +2303,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2309,7 +2321,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2317,13 +2329,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>30.07</v>
+        <v>77</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2335,7 +2347,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2343,13 +2355,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2361,7 +2373,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2369,17 +2381,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>34</v>
+        <v>30.07</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2387,7 +2399,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2395,13 +2407,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2413,7 +2425,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2421,17 +2433,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2447,17 +2459,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2465,7 +2477,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2473,17 +2485,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2491,7 +2503,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2499,17 +2511,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2525,17 +2537,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>55.600000000000001</v>
+        <v>45</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2543,7 +2555,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2551,17 +2563,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2569,7 +2581,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2577,17 +2589,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2595,7 +2607,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2603,17 +2615,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>15</v>
+        <v>55.600000000000001</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2621,7 +2633,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2629,17 +2641,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>69.299999999999997</v>
+        <v>70</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2647,7 +2659,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2655,13 +2667,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>44.549999999999997</v>
+        <v>65</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2681,13 +2693,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2699,7 +2711,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2707,51 +2719,129 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>30</v>
+        <v>69.299999999999997</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="K74" s="10">
-        <v>5294.4899999999998</v>
-      </c>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="11">
-        <v>104</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c t="s" r="F75" s="12">
+    <row r="74" ht="24.75" customHeight="1">
+      <c r="A74" s="6">
+        <v>71</v>
+      </c>
+      <c t="s" r="B74" s="7">
         <v>105</v>
       </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="13"/>
-      <c t="s" r="I75" s="14">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c t="s" r="H74" s="8">
+        <v>50</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="9">
+        <v>44.549999999999997</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c t="s" r="N74" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" ht="25.5" customHeight="1">
+      <c r="A75" s="6">
+        <v>72</v>
+      </c>
+      <c t="s" r="B75" s="7">
         <v>106</v>
       </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c t="s" r="H75" s="8">
+        <v>101</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="9">
+        <v>35</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c t="s" r="N75" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" ht="24.75" customHeight="1">
+      <c r="A76" s="6">
+        <v>73</v>
+      </c>
+      <c t="s" r="B76" s="7">
+        <v>107</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c t="s" r="H76" s="8">
+        <v>82</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="9">
+        <v>30</v>
+      </c>
+      <c r="M76" s="9"/>
+      <c t="s" r="N76" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" ht="26.25" customHeight="1">
+      <c r="K77" s="10">
+        <v>5514.4899999999998</v>
+      </c>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="11">
+        <v>108</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c t="s" r="F78" s="12">
+        <v>109</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13"/>
+      <c t="s" r="I78" s="14">
+        <v>110</v>
+      </c>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="221">
+  <mergeCells count="230">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2969,10 +3059,19 @@
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="I75:N75"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="I78:N78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
